--- a/Uloha4/uloha4.xlsx
+++ b/Uloha4/uloha4.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E2CD93-29EB-4E4D-9D09-F10B86250691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1000001_{DDCE5197-FCF6-E142-B06F-93E411D3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B51486-C760-488C-9C22-FD86D1D90C30}"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="0" windowWidth="30720" windowHeight="16272" xr2:uid="{197626A5-4972-419C-A319-E18AD7407F1A}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{197626A5-4972-419C-A319-E18AD7407F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>f</t>
   </si>
@@ -669,12 +691,25 @@
       </rPr>
       <t>= 5 V</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_R = </t>
+  </si>
+  <si>
+    <t>kt'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -743,15 +778,21 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1011,42 +1052,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1060,19 +1075,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1089,41 +1091,97 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1157,18 +1215,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1177,12 +1226,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1190,11 +1233,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1202,64 +1272,99 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1596,16 +1701,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD665039-98F9-4D16-838D-9C17D9A53466}">
-  <dimension ref="C2:AX9"/>
+  <dimension ref="C2:AX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN31" sqref="AN31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="21" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="20" customWidth="1"/>
+    <col min="32" max="32" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:50" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1637,10 +1755,10 @@
       <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -1649,91 +1767,91 @@
       <c r="Q3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AA3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="31" t="s">
+      <c r="AD3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AE3" s="24" t="s">
+      <c r="AE3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AF3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AG3" s="24" t="s">
+      <c r="AG3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="AH3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AI3" s="24" t="s">
+      <c r="AI3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AJ3" s="26" t="s">
+      <c r="AJ3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AK3" s="24" t="s">
+      <c r="AK3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="25" t="s">
+      <c r="AL3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AM3" s="24" t="s">
+      <c r="AM3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AN3" s="26" t="s">
+      <c r="AN3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AO3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AS3" s="24" t="s">
+      <c r="AS3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AT3" s="24" t="s">
+      <c r="AT3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AU3" s="25" t="s">
+      <c r="AU3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AV3" s="24" t="s">
+      <c r="AV3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" s="25" t="s">
+      <c r="AW3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AX3" s="42" t="s">
+      <c r="AX3" s="29" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1765,8 +1883,8 @@
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="O4" s="23"/>
+      <c r="L4" s="25"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1800,8 +1918,8 @@
       <c r="Z4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="12"/>
-      <c r="AD4" s="32"/>
+      <c r="AA4" s="25"/>
+      <c r="AD4" s="28"/>
       <c r="AE4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1832,7 +1950,7 @@
       <c r="AN4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AO4" s="12"/>
+      <c r="AO4" s="25"/>
       <c r="AR4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1851,153 +1969,989 @@
       <c r="AW4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AX4" s="43"/>
+      <c r="AX4" s="30"/>
     </row>
     <row r="5" spans="3:50" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10" t="s">
+      <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="31">
+        <v>5.0030000000000001</v>
+      </c>
+      <c r="E5" s="31" cm="1">
+        <f t="array" ref="E5:E17">D5:D17/D7</f>
+        <v>0.99641505676160136</v>
+      </c>
+      <c r="F5" s="34">
+        <v>5.05</v>
+      </c>
+      <c r="G5" s="31" cm="1">
+        <f t="array" ref="G5:G17">F5:F17/F7</f>
+        <v>1.01</v>
+      </c>
+      <c r="H5" s="35">
+        <v>4.8</v>
+      </c>
+      <c r="I5" s="31" cm="1">
+        <f t="array" ref="I5:I17">H5:H17/H7</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="34">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K5" s="33" cm="1">
+        <f t="array" ref="K5:K17">J5:J17/J7</f>
+        <v>1.0208333333333335</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="18" t="s">
+      <c r="P5" s="40">
+        <v>1.155</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>5.0220000000000002</v>
+      </c>
+      <c r="R5" s="40" cm="1">
+        <f t="array" ref="R5:R6">(Q5:Q6-5)/5*100</f>
+        <v>0.44000000000000478</v>
+      </c>
+      <c r="S5" s="41">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="T5" s="41" cm="1">
+        <f t="array" ref="T5:T6">(S5:S6-5)/5*100</f>
+        <v>-3.8000000000000074</v>
+      </c>
+      <c r="U5" s="41" cm="1">
+        <f t="array" ref="U5:U6">S5:S6*P5:P6/1.111</f>
+        <v>5.0004950495049503</v>
+      </c>
+      <c r="V5" s="40" cm="1">
+        <f t="array" ref="V5:V6">(U5:U6-5)/5*100</f>
+        <v>9.9009900990054689E-3</v>
+      </c>
+      <c r="W5" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X5" s="41" cm="1">
+        <f t="array" ref="X5:X6">(W5:W6-5)/5*100</f>
+        <v>-8.0000000000000071</v>
+      </c>
+      <c r="Y5" s="41" cm="1">
+        <f t="array" ref="Y5:Y6">W5:W6*P5:P6/1.111</f>
+        <v>4.782178217821782</v>
+      </c>
+      <c r="Z5" s="40" cm="1">
+        <f t="array" ref="Z5:Z6">(Y5:Y6-5)/5*100</f>
+        <v>-4.3564356435643603</v>
+      </c>
+      <c r="AA5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="31" t="s">
+      <c r="AC5">
+        <v>1.111</v>
+      </c>
+      <c r="AD5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="18" t="s">
+      <c r="AE5" s="22">
+        <v>4.0359999999999996</v>
+      </c>
+      <c r="AF5" s="56" cm="1">
+        <f t="array" ref="AF5:AF7">(AE5:AE7-AP9)/AP9*100</f>
+        <v>-19.601593625498008</v>
+      </c>
+      <c r="AG5" s="56">
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="AH5" s="56" cm="1">
+        <f t="array" ref="AH5:AH7">(AG5:AG7-AP9)/AP9*100</f>
+        <v>-19.6215139442231</v>
+      </c>
+      <c r="AI5" s="57" cm="1">
+        <f t="array" ref="AI5:AI7">AG5:AG7*AC5:AC7/1.111</f>
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="AJ5" s="58" cm="1">
+        <f t="array" ref="AJ5:AJ7">(AI5:AI7-AP9)/AP9*100</f>
+        <v>-19.6215139442231</v>
+      </c>
+      <c r="AK5" s="59">
+        <v>4.2</v>
+      </c>
+      <c r="AL5" s="56" cm="1">
+        <f t="array" ref="AL5:AL7">(AK5:AK7-AP9)/AP9*100</f>
+        <v>-16.334661354581662</v>
+      </c>
+      <c r="AM5" s="57" cm="1">
+        <f t="array" ref="AM5:AM7">AK5:AK7*AG12:AG14/1.111</f>
+        <v>4.5871107110711069</v>
+      </c>
+      <c r="AN5" s="60" cm="1">
+        <f t="array" ref="AN5:AN7">(AM5:AM7-AP9)/AP9*100</f>
+        <v>-8.6232926081452739</v>
+      </c>
+      <c r="AO5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="10" t="s">
+      <c r="AR5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>5.0490000000000004</v>
+      </c>
+      <c r="AT5" s="8">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="AU5" s="34" cm="1">
+        <f t="array" ref="AU5:AU22">(AT5:AT22-AS5:AS22)/AS5:AS22*100</f>
+        <v>-80.748663101604265</v>
+      </c>
+      <c r="AV5" s="8">
+        <v>5.16</v>
+      </c>
+      <c r="AW5" s="31" cm="1">
+        <f t="array" ref="AW5:AW22">(AV5:AV22-AS5:AS22)/AS5:AS22*100</f>
+        <v>2.1984551396316054</v>
+      </c>
+      <c r="AX5" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="3:50" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="36">
+        <v>20</v>
+      </c>
+      <c r="D6" s="37">
+        <v>5.0119999999999996</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0.99820752838080062</v>
+      </c>
+      <c r="F6" s="38">
+        <v>5.01</v>
+      </c>
+      <c r="G6" s="37">
+        <v>1.002</v>
+      </c>
+      <c r="H6" s="39">
+        <v>4.8</v>
+      </c>
+      <c r="I6" s="37">
+        <v>1</v>
+      </c>
+      <c r="J6" s="38">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K6" s="37">
+        <v>1.0104166666666667</v>
+      </c>
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="19" t="s">
+      <c r="P6" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>5.0289999999999999</v>
+      </c>
+      <c r="R6" s="42">
+        <v>0.57999999999999829</v>
+      </c>
+      <c r="S6" s="43">
+        <v>5.54</v>
+      </c>
+      <c r="T6" s="44">
+        <v>10.8</v>
+      </c>
+      <c r="U6" s="43">
+        <v>4.9864986498649868</v>
+      </c>
+      <c r="V6" s="42">
+        <v>-0.27002700270026381</v>
+      </c>
+      <c r="W6" s="43">
+        <v>5.2</v>
+      </c>
+      <c r="X6" s="43">
+        <v>4.0000000000000036</v>
+      </c>
+      <c r="Y6" s="43">
+        <v>4.6804680468046804</v>
+      </c>
+      <c r="Z6" s="42">
+        <v>-6.3906390639063924</v>
+      </c>
+      <c r="AA6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="18" t="s">
+      <c r="AC6">
+        <v>1.115</v>
+      </c>
+      <c r="AD6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE6" s="19">
+        <v>4.0119999999999996</v>
+      </c>
+      <c r="AF6" s="53">
+        <v>-20.079681274900398</v>
+      </c>
+      <c r="AG6" s="19">
+        <v>3.86</v>
+      </c>
+      <c r="AH6" s="53">
+        <v>-23.107569721115535</v>
+      </c>
+      <c r="AI6" s="41">
+        <v>3.8738973897389735</v>
+      </c>
+      <c r="AJ6" s="54">
+        <v>-22.830729288068252</v>
+      </c>
+      <c r="AK6" s="51">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="53">
+        <v>-20.318725099601586</v>
+      </c>
+      <c r="AM6" s="41">
+        <v>4.3762376237623766</v>
+      </c>
+      <c r="AN6" s="54">
+        <v>-12.823951717880938</v>
+      </c>
+      <c r="AO6" s="13" t="s">
         <v>39</v>
+      </c>
+      <c r="AR6" s="36">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="36">
+        <v>5.0460000000000003</v>
+      </c>
+      <c r="AT6" s="36">
+        <v>1.383</v>
+      </c>
+      <c r="AU6" s="38">
+        <v>-72.592152199762197</v>
+      </c>
+      <c r="AV6" s="36">
+        <v>5.16</v>
+      </c>
+      <c r="AW6" s="37">
+        <v>2.2592152199762161</v>
       </c>
     </row>
     <row r="7" spans="3:50" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AD7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="18" t="s">
+      <c r="C7" s="36">
+        <v>50</v>
+      </c>
+      <c r="D7" s="37">
+        <v>5.0209999999999999</v>
+      </c>
+      <c r="E7" s="37">
+        <v>1</v>
+      </c>
+      <c r="F7" s="38">
+        <v>5</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7" s="39">
+        <v>4.8</v>
+      </c>
+      <c r="I7" s="37">
+        <v>1</v>
+      </c>
+      <c r="J7" s="38">
+        <v>4.8</v>
+      </c>
+      <c r="K7" s="37">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>4.056</v>
+      </c>
+      <c r="AF7" s="44">
+        <v>-19.20318725099601</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>4.47</v>
+      </c>
+      <c r="AH7" s="44">
+        <v>-10.956175298804778</v>
+      </c>
+      <c r="AI7" s="43">
+        <v>4.0234023402340231</v>
+      </c>
+      <c r="AJ7" s="55">
+        <v>-19.852543023226623</v>
+      </c>
+      <c r="AK7" s="52">
+        <v>4.2</v>
+      </c>
+      <c r="AL7" s="44">
+        <v>-16.334661354581662</v>
+      </c>
+      <c r="AM7" s="43">
+        <v>4.7254725472547259</v>
+      </c>
+      <c r="AN7" s="42">
+        <v>-5.8670807319775644</v>
+      </c>
+      <c r="AO7" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="AR7" s="36">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="36">
+        <v>5.0439999999999996</v>
+      </c>
+      <c r="AT7" s="36">
+        <v>1.694</v>
+      </c>
+      <c r="AU7" s="38">
+        <v>-66.41554321966693</v>
+      </c>
+      <c r="AV7" s="36">
+        <v>5.16</v>
+      </c>
+      <c r="AW7" s="37">
+        <v>2.2997620935765375</v>
+      </c>
     </row>
-    <row r="8" spans="3:50" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AD8" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="19" t="s">
+    <row r="8" spans="3:50" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="36">
+        <v>100</v>
+      </c>
+      <c r="D8" s="37">
+        <v>5.0279999999999996</v>
+      </c>
+      <c r="E8" s="37">
+        <v>1.0013941445927106</v>
+      </c>
+      <c r="F8" s="38">
+        <v>5</v>
+      </c>
+      <c r="G8" s="37">
+        <v>1</v>
+      </c>
+      <c r="H8" s="39">
+        <v>4.8</v>
+      </c>
+      <c r="I8" s="37">
+        <v>1</v>
+      </c>
+      <c r="J8" s="38">
+        <v>4.8</v>
+      </c>
+      <c r="K8" s="37">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="14" t="s">
         <v>41</v>
       </c>
+      <c r="AR8" s="7">
+        <v>4</v>
+      </c>
+      <c r="AS8" s="36">
+        <v>5.0430000000000001</v>
+      </c>
+      <c r="AT8" s="36">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="AU8" s="38">
+        <v>-61.27305175490779</v>
+      </c>
+      <c r="AV8" s="36">
+        <v>5.15</v>
+      </c>
+      <c r="AW8" s="37">
+        <v>2.1217529248463256</v>
+      </c>
     </row>
-    <row r="9" spans="3:50" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="3:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="36">
+        <v>200</v>
+      </c>
+      <c r="D9" s="37">
+        <v>5.0309999999999997</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1.0019916351324436</v>
+      </c>
+      <c r="F9" s="38">
+        <v>5</v>
+      </c>
+      <c r="G9" s="37">
+        <v>1</v>
+      </c>
+      <c r="H9" s="39">
+        <v>4.8</v>
+      </c>
+      <c r="I9" s="37">
+        <v>1</v>
+      </c>
+      <c r="J9" s="38">
+        <v>4.8</v>
+      </c>
+      <c r="K9" s="37">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP9">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR9" s="36">
+        <v>5</v>
+      </c>
+      <c r="AS9" s="36">
+        <v>5.0410000000000004</v>
+      </c>
+      <c r="AT9" s="36">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="AU9" s="38">
+        <v>-56.833961515572305</v>
+      </c>
+      <c r="AV9" s="36">
+        <v>5.15</v>
+      </c>
+      <c r="AW9" s="37">
+        <v>2.16226939099385</v>
+      </c>
+    </row>
+    <row r="10" spans="3:50" x14ac:dyDescent="0.3">
+      <c r="C10" s="36">
+        <v>500</v>
+      </c>
+      <c r="D10" s="37">
+        <v>5.032</v>
+      </c>
+      <c r="E10" s="37">
+        <v>1.0021907986456882</v>
+      </c>
+      <c r="F10" s="38">
+        <v>4.99</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0.998</v>
+      </c>
+      <c r="H10" s="39">
+        <v>4.8</v>
+      </c>
+      <c r="I10" s="37">
+        <v>1</v>
+      </c>
+      <c r="J10" s="38">
+        <v>4.8</v>
+      </c>
+      <c r="K10" s="37">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR10" s="36">
+        <v>6</v>
+      </c>
+      <c r="AS10" s="36">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="AT10" s="36">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="AU10" s="38">
+        <v>-52.847787259376858</v>
+      </c>
+      <c r="AV10" s="36">
+        <v>5.15</v>
+      </c>
+      <c r="AW10" s="37">
+        <v>2.2028180194483165</v>
+      </c>
+    </row>
+    <row r="11" spans="3:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="36">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="37">
+        <v>5.03</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1.0017924716191995</v>
+      </c>
+      <c r="F11" s="38">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0.99600000000000011</v>
+      </c>
+      <c r="H11" s="39">
+        <v>4.8</v>
+      </c>
+      <c r="I11" s="37">
+        <v>1</v>
+      </c>
+      <c r="J11" s="38">
+        <v>4.8</v>
+      </c>
+      <c r="K11" s="37">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>7</v>
+      </c>
+      <c r="AS11" s="36">
+        <v>5.0380000000000003</v>
+      </c>
+      <c r="AT11" s="36">
+        <v>2.5550000000000002</v>
+      </c>
+      <c r="AU11" s="38">
+        <v>-49.285430726478765</v>
+      </c>
+      <c r="AV11" s="36">
+        <v>5.15</v>
+      </c>
+      <c r="AW11" s="37">
+        <v>2.2231044065105219</v>
+      </c>
+    </row>
+    <row r="12" spans="3:50" x14ac:dyDescent="0.3">
+      <c r="C12" s="36">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="37">
+        <v>5.0220000000000002</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1.0001991635132443</v>
+      </c>
+      <c r="F12" s="38">
+        <v>4.92</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="H12" s="39">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="J12" s="38">
+        <v>4.8</v>
+      </c>
+      <c r="K12" s="37">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG12" s="32">
+        <v>1.2134</v>
+      </c>
+      <c r="AR12" s="36">
+        <v>8</v>
+      </c>
+      <c r="AS12" s="36">
+        <v>5.0369999999999999</v>
+      </c>
+      <c r="AT12" s="36">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="AU12" s="38">
+        <v>-46.019456025411955</v>
+      </c>
+      <c r="AV12" s="36">
+        <v>5.15</v>
+      </c>
+      <c r="AW12" s="37">
+        <v>2.2433988485209539</v>
+      </c>
+    </row>
+    <row r="13" spans="3:50" x14ac:dyDescent="0.3">
+      <c r="C13" s="36">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="37">
+        <v>4.9960000000000004</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0.99502091216889077</v>
+      </c>
+      <c r="F13" s="38">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H13" s="39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="J13" s="38">
+        <v>4.8</v>
+      </c>
+      <c r="K13" s="37">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG13" s="32">
+        <v>1.2155</v>
+      </c>
+      <c r="AR13" s="36">
+        <v>9</v>
+      </c>
+      <c r="AS13" s="36">
+        <v>5.0350000000000001</v>
+      </c>
+      <c r="AT13" s="36">
+        <v>2.871</v>
+      </c>
+      <c r="AU13" s="38">
+        <v>-42.979145978152935</v>
+      </c>
+      <c r="AV13" s="36">
+        <v>5.15</v>
+      </c>
+      <c r="AW13" s="37">
+        <v>2.2840119165839168</v>
+      </c>
+    </row>
+    <row r="14" spans="3:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="36">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="37">
+        <v>4.976</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.99103764190400323</v>
+      </c>
+      <c r="F14" s="38">
+        <v>3.82</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="H14" s="39">
+        <v>4.2</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0.87500000000000011</v>
+      </c>
+      <c r="J14" s="38">
+        <v>4.8</v>
+      </c>
+      <c r="K14" s="37">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG14" s="50">
+        <v>1.25</v>
+      </c>
+      <c r="AR14" s="7">
+        <v>10</v>
+      </c>
+      <c r="AS14" s="36">
+        <v>5.0330000000000004</v>
+      </c>
+      <c r="AT14" s="36">
+        <v>3.0110000000000001</v>
+      </c>
+      <c r="AU14" s="38">
+        <v>-40.17484601629247</v>
+      </c>
+      <c r="AV14" s="36">
+        <v>5.14</v>
+      </c>
+      <c r="AW14" s="37">
+        <v>2.1259686071925157</v>
+      </c>
+    </row>
+    <row r="15" spans="3:50" x14ac:dyDescent="0.3">
+      <c r="C15" s="36">
+        <v>20000</v>
+      </c>
+      <c r="D15" s="37">
+        <v>4.976</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.99103764190400323</v>
+      </c>
+      <c r="F15" s="38">
+        <v>2.42</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H15" s="39">
+        <v>4</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J15" s="38">
+        <v>4.8</v>
+      </c>
+      <c r="K15" s="37">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="36">
+        <v>15</v>
+      </c>
+      <c r="AS15" s="36">
+        <v>5.0279999999999996</v>
+      </c>
+      <c r="AT15" s="36">
+        <v>3.59</v>
+      </c>
+      <c r="AU15" s="38">
+        <v>-28.599840891010338</v>
+      </c>
+      <c r="AV15" s="36">
+        <v>5.13</v>
+      </c>
+      <c r="AW15" s="37">
+        <v>2.0286396181384312</v>
+      </c>
+    </row>
+    <row r="16" spans="3:50" x14ac:dyDescent="0.3">
+      <c r="C16" s="36">
+        <v>50000</v>
+      </c>
+      <c r="D16" s="37">
+        <v>5.1050000000000004</v>
+      </c>
+      <c r="E16" s="37">
+        <v>1.0167297351125275</v>
+      </c>
+      <c r="F16" s="38">
+        <v>0.64</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0.128</v>
+      </c>
+      <c r="H16" s="39">
+        <v>2.4</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="38">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K16" s="37">
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="AR16" s="36">
+        <v>20</v>
+      </c>
+      <c r="AS16" s="36">
+        <v>5.0229999999999997</v>
+      </c>
+      <c r="AT16" s="36">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="AU16" s="38">
+        <v>-19.868604419669509</v>
+      </c>
+      <c r="AV16" s="36">
+        <v>5.12</v>
+      </c>
+      <c r="AW16" s="37">
+        <v>1.9311168624328177</v>
+      </c>
+    </row>
+    <row r="17" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="C17" s="36">
+        <v>100000</v>
+      </c>
+      <c r="D17" s="37">
+        <v>5.6879999999999997</v>
+      </c>
+      <c r="E17" s="37">
+        <v>1.1328420633339973</v>
+      </c>
+      <c r="F17" s="38">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G17" s="37">
+        <v>2.9599999999999998E-2</v>
+      </c>
+      <c r="H17" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="I17" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="J17" s="38">
+        <v>4</v>
+      </c>
+      <c r="K17" s="37">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AR17" s="36">
+        <v>25</v>
+      </c>
+      <c r="AS17" s="36">
+        <v>5.0190000000000001</v>
+      </c>
+      <c r="AT17" s="36">
+        <v>4.359</v>
+      </c>
+      <c r="AU17" s="38">
+        <v>-13.150029886431563</v>
+      </c>
+      <c r="AV17" s="36">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="AW17" s="37">
+        <v>1.8131101813110218</v>
+      </c>
+    </row>
+    <row r="18" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="AR18" s="36">
+        <v>30</v>
+      </c>
+      <c r="AS18" s="36">
+        <v>5.0149999999999997</v>
+      </c>
+      <c r="AT18" s="36">
+        <v>4.6139999999999999</v>
+      </c>
+      <c r="AU18" s="37">
+        <v>-7.996011964107673</v>
+      </c>
+      <c r="AV18" s="36">
+        <v>5.09</v>
+      </c>
+      <c r="AW18" s="37">
+        <v>1.4955134596211401</v>
+      </c>
+    </row>
+    <row r="19" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="AR19" s="36">
+        <v>35</v>
+      </c>
+      <c r="AS19" s="36">
+        <v>5.0119999999999996</v>
+      </c>
+      <c r="AT19" s="36">
+        <v>4.8019999999999996</v>
+      </c>
+      <c r="AU19" s="37">
+        <v>-4.1899441340782122</v>
+      </c>
+      <c r="AV19" s="36">
+        <v>5.08</v>
+      </c>
+      <c r="AW19" s="37">
+        <v>1.3567438148443836</v>
+      </c>
+    </row>
+    <row r="20" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="AR20" s="36">
+        <v>40</v>
+      </c>
+      <c r="AS20" s="36">
+        <v>5.0090000000000003</v>
+      </c>
+      <c r="AT20" s="36">
+        <v>4.931</v>
+      </c>
+      <c r="AU20" s="37">
+        <v>-1.5571970453184325</v>
+      </c>
+      <c r="AV20" s="36">
+        <v>5.07</v>
+      </c>
+      <c r="AW20" s="37">
+        <v>1.2178079456977429</v>
+      </c>
+    </row>
+    <row r="21" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="AR21" s="36">
+        <v>45</v>
+      </c>
+      <c r="AS21" s="36">
+        <v>5.0049999999999999</v>
+      </c>
+      <c r="AT21" s="36">
+        <v>5.0060000000000002</v>
+      </c>
+      <c r="AU21" s="37">
+        <v>1.9980019980026652E-2</v>
+      </c>
+      <c r="AV21" s="36">
+        <v>5.05</v>
+      </c>
+      <c r="AW21" s="37">
+        <v>0.89910089910089763</v>
+      </c>
+    </row>
+    <row r="22" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="AR22" s="36">
+        <v>50</v>
+      </c>
+      <c r="AS22" s="36">
+        <v>5.0010000000000003</v>
+      </c>
+      <c r="AT22" s="36">
+        <v>5.0279999999999996</v>
+      </c>
+      <c r="AU22" s="37">
+        <v>0.53989202159566574</v>
+      </c>
+      <c r="AV22" s="36">
+        <v>5.04</v>
+      </c>
+      <c r="AW22" s="37">
+        <v>0.77984403119375523</v>
+      </c>
+    </row>
+    <row r="23" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="AD23" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="6">
     <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Uloha4/uloha4.xlsx
+++ b/Uloha4/uloha4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1000001_{DDCE5197-FCF6-E142-B06F-93E411D3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B51486-C760-488C-9C22-FD86D1D90C30}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1000001_{DDCE5197-FCF6-E142-B06F-93E411D3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BF25E6F-A85F-4E04-BF78-DDFED2F16A19}"/>
   <bookViews>
     <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{197626A5-4972-419C-A319-E18AD7407F1A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1257,30 +1257,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1367,6 +1343,30 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,6 +1382,3487 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kmitočtová</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> závislost přístrojů</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.99641505676160136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99820752838080062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0013941445927106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0019916351324436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0021907986456882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0017924716191995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0001991635132443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99502091216889077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99103764190400323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99103764190400323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0167297351125275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1328420633339973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94BB-499F-B6F2-36EEF1737050}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>A2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99600000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9599999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94BB-499F-B6F2-36EEF1737050}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>A3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95833333333333326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91666666666666674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-94BB-499F-B6F2-36EEF1737050}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>A4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0208333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95833333333333326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-94BB-499F-B6F2-36EEF1737050}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="107041503"/>
+        <c:axId val="107042943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="107041503"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" i="1"/>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107042943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107042943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>A</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107041503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Závislost měřeného napětí na střídě</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>UR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AR$5:$AR$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AS$5:$AS$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.0490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0389999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0010000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D94-44FD-A6AB-5E00EC1F5B59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>U1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AR$5:$AR$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AT$5:$AT$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.359</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0279999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D94-44FD-A6AB-5E00EC1F5B59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Uosc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AR$5:$AR$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AV$5:$AV$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6D94-44FD-A6AB-5E00EC1F5B59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="109953647"/>
+        <c:axId val="109955567"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>d1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AR$5:$AR$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AU$5:$AU$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-80.748663101604265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-72.592152199762197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-66.41554321966693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-61.27305175490779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-56.833961515572305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-52.847787259376858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-49.285430726478765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-46.019456025411955</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-42.979145978152935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-40.17484601629247</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-28.599840891010338</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-19.868604419669509</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-13.150029886431563</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.000">
+                  <c:v>-7.996011964107673</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.000">
+                  <c:v>-4.1899441340782122</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.000">
+                  <c:v>-1.5571970453184325</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.000">
+                  <c:v>1.9980019980026652E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.000">
+                  <c:v>0.53989202159566574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D94-44FD-A6AB-5E00EC1F5B59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>dosc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AR$5:$AR$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AW$5:$AW$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2.1984551396316054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2592152199762161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2997620935765375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1217529248463256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.16226939099385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2028180194483165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2231044065105219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2433988485209539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2840119165839168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1259686071925157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0286396181384312</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9311168624328177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8131101813110218</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4955134596211401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3567438148443836</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2178079456977429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89910089910089763</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77984403119375523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6D94-44FD-A6AB-5E00EC1F5B59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="86627599"/>
+        <c:axId val="109954607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="109953647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>střída</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109955567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="109955567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>U</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109953647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="109954607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ">
+                    <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86627599"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="86627599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109954607"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99059</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>415785</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BC9D45-DF44-A10B-04DB-15994173D8DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>531451</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>35469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>85552</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>155518</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D0B04F-3E4E-0E83-D591-FD80561270F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1703,8 +5184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD665039-98F9-4D16-838D-9C17D9A53466}">
   <dimension ref="C2:AX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN31" sqref="AN31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BA60" sqref="BA59:BA60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,10 +5236,10 @@
       <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="57" t="s">
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -1794,10 +5275,10 @@
       <c r="Z3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="24" t="s">
+      <c r="AA3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="23" t="s">
+      <c r="AD3" s="59" t="s">
         <v>14</v>
       </c>
       <c r="AE3" s="15" t="s">
@@ -1830,7 +5311,7 @@
       <c r="AN3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AO3" s="24" t="s">
+      <c r="AO3" s="55" t="s">
         <v>9</v>
       </c>
       <c r="AR3" s="1" t="s">
@@ -1851,7 +5332,7 @@
       <c r="AW3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AX3" s="29" t="s">
+      <c r="AX3" s="53" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1883,8 +5364,8 @@
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="O4" s="27"/>
+      <c r="L4" s="56"/>
+      <c r="O4" s="58"/>
       <c r="P4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1918,8 +5399,8 @@
       <c r="Z4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="25"/>
-      <c r="AD4" s="28"/>
+      <c r="AA4" s="56"/>
+      <c r="AD4" s="60"/>
       <c r="AE4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1950,7 +5431,7 @@
       <c r="AN4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AO4" s="25"/>
+      <c r="AO4" s="56"/>
       <c r="AR4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1969,37 +5450,37 @@
       <c r="AW4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AX4" s="30"/>
+      <c r="AX4" s="54"/>
     </row>
     <row r="5" spans="3:50" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="7">
         <v>10</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="23">
         <v>5.0030000000000001</v>
       </c>
-      <c r="E5" s="31" cm="1">
+      <c r="E5" s="23" cm="1">
         <f t="array" ref="E5:E17">D5:D17/D7</f>
         <v>0.99641505676160136</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="26">
         <v>5.05</v>
       </c>
-      <c r="G5" s="31" cm="1">
+      <c r="G5" s="23" cm="1">
         <f t="array" ref="G5:G17">F5:F17/F7</f>
         <v>1.01</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="27">
         <v>4.8</v>
       </c>
-      <c r="I5" s="31" cm="1">
+      <c r="I5" s="23" cm="1">
         <f t="array" ref="I5:I17">H5:H17/H7</f>
         <v>1</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="26">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K5" s="33" cm="1">
+      <c r="K5" s="25" cm="1">
         <f t="array" ref="K5:K17">J5:J17/J7</f>
         <v>1.0208333333333335</v>
       </c>
@@ -2009,43 +5490,43 @@
       <c r="O5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="32">
         <v>1.155</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q5" s="33">
         <v>5.0220000000000002</v>
       </c>
-      <c r="R5" s="40" cm="1">
+      <c r="R5" s="32" cm="1">
         <f t="array" ref="R5:R6">(Q5:Q6-5)/5*100</f>
         <v>0.44000000000000478</v>
       </c>
-      <c r="S5" s="41">
+      <c r="S5" s="33">
         <v>4.8099999999999996</v>
       </c>
-      <c r="T5" s="41" cm="1">
+      <c r="T5" s="33" cm="1">
         <f t="array" ref="T5:T6">(S5:S6-5)/5*100</f>
         <v>-3.8000000000000074</v>
       </c>
-      <c r="U5" s="41" cm="1">
+      <c r="U5" s="33" cm="1">
         <f t="array" ref="U5:U6">S5:S6*P5:P6/1.111</f>
         <v>5.0004950495049503</v>
       </c>
-      <c r="V5" s="40" cm="1">
+      <c r="V5" s="32" cm="1">
         <f t="array" ref="V5:V6">(U5:U6-5)/5*100</f>
         <v>9.9009900990054689E-3</v>
       </c>
-      <c r="W5" s="41">
+      <c r="W5" s="33">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X5" s="41" cm="1">
+      <c r="X5" s="33" cm="1">
         <f t="array" ref="X5:X6">(W5:W6-5)/5*100</f>
         <v>-8.0000000000000071</v>
       </c>
-      <c r="Y5" s="41" cm="1">
+      <c r="Y5" s="33" cm="1">
         <f t="array" ref="Y5:Y6">W5:W6*P5:P6/1.111</f>
         <v>4.782178217821782</v>
       </c>
-      <c r="Z5" s="40" cm="1">
+      <c r="Z5" s="32" cm="1">
         <f t="array" ref="Z5:Z6">(Y5:Y6-5)/5*100</f>
         <v>-4.3564356435643603</v>
       </c>
@@ -2061,37 +5542,37 @@
       <c r="AE5" s="22">
         <v>4.0359999999999996</v>
       </c>
-      <c r="AF5" s="56" cm="1">
+      <c r="AF5" s="48" cm="1">
         <f t="array" ref="AF5:AF7">(AE5:AE7-AP9)/AP9*100</f>
         <v>-19.601593625498008</v>
       </c>
-      <c r="AG5" s="56">
+      <c r="AG5" s="48">
         <v>4.0350000000000001</v>
       </c>
-      <c r="AH5" s="56" cm="1">
+      <c r="AH5" s="48" cm="1">
         <f t="array" ref="AH5:AH7">(AG5:AG7-AP9)/AP9*100</f>
         <v>-19.6215139442231</v>
       </c>
-      <c r="AI5" s="57" cm="1">
+      <c r="AI5" s="49" cm="1">
         <f t="array" ref="AI5:AI7">AG5:AG7*AC5:AC7/1.111</f>
         <v>4.0350000000000001</v>
       </c>
-      <c r="AJ5" s="58" cm="1">
+      <c r="AJ5" s="50" cm="1">
         <f t="array" ref="AJ5:AJ7">(AI5:AI7-AP9)/AP9*100</f>
         <v>-19.6215139442231</v>
       </c>
-      <c r="AK5" s="59">
+      <c r="AK5" s="51">
         <v>4.2</v>
       </c>
-      <c r="AL5" s="56" cm="1">
+      <c r="AL5" s="48" cm="1">
         <f t="array" ref="AL5:AL7">(AK5:AK7-AP9)/AP9*100</f>
         <v>-16.334661354581662</v>
       </c>
-      <c r="AM5" s="57" cm="1">
+      <c r="AM5" s="49" cm="1">
         <f t="array" ref="AM5:AM7">AK5:AK7*AG12:AG14/1.111</f>
         <v>4.5871107110711069</v>
       </c>
-      <c r="AN5" s="60" cm="1">
+      <c r="AN5" s="52" cm="1">
         <f t="array" ref="AN5:AN7">(AM5:AM7-AP9)/AP9*100</f>
         <v>-8.6232926081452739</v>
       </c>
@@ -2107,14 +5588,14 @@
       <c r="AT5" s="8">
         <v>0.97199999999999998</v>
       </c>
-      <c r="AU5" s="34" cm="1">
+      <c r="AU5" s="26" cm="1">
         <f t="array" ref="AU5:AU22">(AT5:AT22-AS5:AS22)/AS5:AS22*100</f>
         <v>-80.748663101604265</v>
       </c>
       <c r="AV5" s="8">
         <v>5.16</v>
       </c>
-      <c r="AW5" s="31" cm="1">
+      <c r="AW5" s="23" cm="1">
         <f t="array" ref="AW5:AW22">(AV5:AV22-AS5:AS22)/AS5:AS22*100</f>
         <v>2.1984551396316054</v>
       </c>
@@ -2123,67 +5604,67 @@
       </c>
     </row>
     <row r="6" spans="3:50" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="36">
+      <c r="C6" s="28">
         <v>20</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="29">
         <v>5.0119999999999996</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="29">
         <v>0.99820752838080062</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="30">
         <v>5.01</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="29">
         <v>1.002</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="31">
         <v>4.8</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="29">
         <v>1</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="30">
         <v>4.8499999999999996</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="29">
         <v>1.0104166666666667</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="34">
         <v>1</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="35">
         <v>5.0289999999999999</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="34">
         <v>0.57999999999999829</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="35">
         <v>5.54</v>
       </c>
-      <c r="T6" s="44">
+      <c r="T6" s="36">
         <v>10.8</v>
       </c>
-      <c r="U6" s="43">
+      <c r="U6" s="35">
         <v>4.9864986498649868</v>
       </c>
-      <c r="V6" s="42">
+      <c r="V6" s="34">
         <v>-0.27002700270026381</v>
       </c>
-      <c r="W6" s="43">
+      <c r="W6" s="35">
         <v>5.2</v>
       </c>
-      <c r="X6" s="43">
+      <c r="X6" s="35">
         <v>4.0000000000000036</v>
       </c>
-      <c r="Y6" s="43">
+      <c r="Y6" s="35">
         <v>4.6804680468046804</v>
       </c>
-      <c r="Z6" s="42">
+      <c r="Z6" s="34">
         <v>-6.3906390639063924</v>
       </c>
       <c r="AA6" s="14" t="s">
@@ -2198,81 +5679,81 @@
       <c r="AE6" s="19">
         <v>4.0119999999999996</v>
       </c>
-      <c r="AF6" s="53">
+      <c r="AF6" s="45">
         <v>-20.079681274900398</v>
       </c>
       <c r="AG6" s="19">
         <v>3.86</v>
       </c>
-      <c r="AH6" s="53">
+      <c r="AH6" s="45">
         <v>-23.107569721115535</v>
       </c>
-      <c r="AI6" s="41">
+      <c r="AI6" s="33">
         <v>3.8738973897389735</v>
       </c>
-      <c r="AJ6" s="54">
+      <c r="AJ6" s="46">
         <v>-22.830729288068252</v>
       </c>
-      <c r="AK6" s="51">
+      <c r="AK6" s="43">
         <v>4</v>
       </c>
-      <c r="AL6" s="53">
+      <c r="AL6" s="45">
         <v>-20.318725099601586</v>
       </c>
-      <c r="AM6" s="41">
+      <c r="AM6" s="33">
         <v>4.3762376237623766</v>
       </c>
-      <c r="AN6" s="54">
+      <c r="AN6" s="46">
         <v>-12.823951717880938</v>
       </c>
       <c r="AO6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AR6" s="36">
+      <c r="AR6" s="28">
         <v>2</v>
       </c>
-      <c r="AS6" s="36">
+      <c r="AS6" s="28">
         <v>5.0460000000000003</v>
       </c>
-      <c r="AT6" s="36">
+      <c r="AT6" s="28">
         <v>1.383</v>
       </c>
-      <c r="AU6" s="38">
+      <c r="AU6" s="30">
         <v>-72.592152199762197</v>
       </c>
-      <c r="AV6" s="36">
+      <c r="AV6" s="28">
         <v>5.16</v>
       </c>
-      <c r="AW6" s="37">
+      <c r="AW6" s="29">
         <v>2.2592152199762161</v>
       </c>
     </row>
     <row r="7" spans="3:50" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="36">
+      <c r="C7" s="28">
         <v>50</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="29">
         <v>5.0209999999999999</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="29">
         <v>1</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="30">
         <v>5</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="29">
         <v>1</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="31">
         <v>4.8</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="29">
         <v>1</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="30">
         <v>4.8</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="29">
         <v>1</v>
       </c>
       <c r="AC7">
@@ -2284,81 +5765,81 @@
       <c r="AE7" s="5">
         <v>4.056</v>
       </c>
-      <c r="AF7" s="44">
+      <c r="AF7" s="36">
         <v>-19.20318725099601</v>
       </c>
       <c r="AG7" s="5">
         <v>4.47</v>
       </c>
-      <c r="AH7" s="44">
+      <c r="AH7" s="36">
         <v>-10.956175298804778</v>
       </c>
-      <c r="AI7" s="43">
+      <c r="AI7" s="35">
         <v>4.0234023402340231</v>
       </c>
-      <c r="AJ7" s="55">
+      <c r="AJ7" s="47">
         <v>-19.852543023226623</v>
       </c>
-      <c r="AK7" s="52">
+      <c r="AK7" s="44">
         <v>4.2</v>
       </c>
-      <c r="AL7" s="44">
+      <c r="AL7" s="36">
         <v>-16.334661354581662</v>
       </c>
-      <c r="AM7" s="43">
+      <c r="AM7" s="35">
         <v>4.7254725472547259</v>
       </c>
-      <c r="AN7" s="42">
+      <c r="AN7" s="34">
         <v>-5.8670807319775644</v>
       </c>
       <c r="AO7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AR7" s="36">
+      <c r="AR7" s="28">
         <v>3</v>
       </c>
-      <c r="AS7" s="36">
+      <c r="AS7" s="28">
         <v>5.0439999999999996</v>
       </c>
-      <c r="AT7" s="36">
+      <c r="AT7" s="28">
         <v>1.694</v>
       </c>
-      <c r="AU7" s="38">
+      <c r="AU7" s="30">
         <v>-66.41554321966693</v>
       </c>
-      <c r="AV7" s="36">
+      <c r="AV7" s="28">
         <v>5.16</v>
       </c>
-      <c r="AW7" s="37">
+      <c r="AW7" s="29">
         <v>2.2997620935765375</v>
       </c>
     </row>
     <row r="8" spans="3:50" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="36">
+      <c r="C8" s="28">
         <v>100</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="29">
         <v>5.0279999999999996</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="29">
         <v>1.0013941445927106</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="30">
         <v>5</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="29">
         <v>1</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="31">
         <v>4.8</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="29">
         <v>1</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="30">
         <v>4.8</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="29">
         <v>1</v>
       </c>
       <c r="AO8" s="14" t="s">
@@ -2367,48 +5848,48 @@
       <c r="AR8" s="7">
         <v>4</v>
       </c>
-      <c r="AS8" s="36">
+      <c r="AS8" s="28">
         <v>5.0430000000000001</v>
       </c>
-      <c r="AT8" s="36">
+      <c r="AT8" s="28">
         <v>1.9530000000000001</v>
       </c>
-      <c r="AU8" s="38">
+      <c r="AU8" s="30">
         <v>-61.27305175490779</v>
       </c>
-      <c r="AV8" s="36">
+      <c r="AV8" s="28">
         <v>5.15</v>
       </c>
-      <c r="AW8" s="37">
+      <c r="AW8" s="29">
         <v>2.1217529248463256</v>
       </c>
     </row>
     <row r="9" spans="3:50" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="36">
+      <c r="C9" s="28">
         <v>200</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="29">
         <v>5.0309999999999997</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="29">
         <v>1.0019916351324436</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="30">
         <v>5</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="29">
         <v>1</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="31">
         <v>4.8</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="29">
         <v>1</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="30">
         <v>4.8</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="29">
         <v>1</v>
       </c>
       <c r="AO9" t="s">
@@ -2420,522 +5901,522 @@
       <c r="AQ9" t="s">
         <v>11</v>
       </c>
-      <c r="AR9" s="36">
+      <c r="AR9" s="28">
         <v>5</v>
       </c>
-      <c r="AS9" s="36">
+      <c r="AS9" s="28">
         <v>5.0410000000000004</v>
       </c>
-      <c r="AT9" s="36">
+      <c r="AT9" s="28">
         <v>2.1760000000000002</v>
       </c>
-      <c r="AU9" s="38">
+      <c r="AU9" s="30">
         <v>-56.833961515572305</v>
       </c>
-      <c r="AV9" s="36">
+      <c r="AV9" s="28">
         <v>5.15</v>
       </c>
-      <c r="AW9" s="37">
+      <c r="AW9" s="29">
         <v>2.16226939099385</v>
       </c>
     </row>
     <row r="10" spans="3:50" x14ac:dyDescent="0.3">
-      <c r="C10" s="36">
+      <c r="C10" s="28">
         <v>500</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="29">
         <v>5.032</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="29">
         <v>1.0021907986456882</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="30">
         <v>4.99</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="29">
         <v>0.998</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="31">
         <v>4.8</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="29">
         <v>1</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="30">
         <v>4.8</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="29">
         <v>1</v>
       </c>
-      <c r="AG10" s="45" t="s">
+      <c r="AG10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AR10" s="36">
+      <c r="AR10" s="28">
         <v>6</v>
       </c>
-      <c r="AS10" s="36">
+      <c r="AS10" s="28">
         <v>5.0389999999999997</v>
       </c>
-      <c r="AT10" s="36">
+      <c r="AT10" s="28">
         <v>2.3759999999999999</v>
       </c>
-      <c r="AU10" s="38">
+      <c r="AU10" s="30">
         <v>-52.847787259376858</v>
       </c>
-      <c r="AV10" s="36">
+      <c r="AV10" s="28">
         <v>5.15</v>
       </c>
-      <c r="AW10" s="37">
+      <c r="AW10" s="29">
         <v>2.2028180194483165</v>
       </c>
     </row>
     <row r="11" spans="3:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="36">
+      <c r="C11" s="28">
         <v>1000</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="29">
         <v>5.03</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="29">
         <v>1.0017924716191995</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="30">
         <v>4.9800000000000004</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="29">
         <v>0.99600000000000011</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="31">
         <v>4.8</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="29">
         <v>1</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="30">
         <v>4.8</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="29">
         <v>1</v>
       </c>
-      <c r="AG11" s="46" t="s">
+      <c r="AG11" s="38" t="s">
         <v>12</v>
       </c>
       <c r="AR11" s="7">
         <v>7</v>
       </c>
-      <c r="AS11" s="36">
+      <c r="AS11" s="28">
         <v>5.0380000000000003</v>
       </c>
-      <c r="AT11" s="36">
+      <c r="AT11" s="28">
         <v>2.5550000000000002</v>
       </c>
-      <c r="AU11" s="38">
+      <c r="AU11" s="30">
         <v>-49.285430726478765</v>
       </c>
-      <c r="AV11" s="36">
+      <c r="AV11" s="28">
         <v>5.15</v>
       </c>
-      <c r="AW11" s="37">
+      <c r="AW11" s="29">
         <v>2.2231044065105219</v>
       </c>
     </row>
     <row r="12" spans="3:50" x14ac:dyDescent="0.3">
-      <c r="C12" s="36">
+      <c r="C12" s="28">
         <v>2000</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="29">
         <v>5.0220000000000002</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="29">
         <v>1.0001991635132443</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="30">
         <v>4.92</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="29">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="31">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="29">
         <v>0.95833333333333326</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="30">
         <v>4.8</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="29">
         <v>1</v>
       </c>
-      <c r="AF12" s="47" t="s">
+      <c r="AF12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AG12" s="32">
+      <c r="AG12" s="24">
         <v>1.2134</v>
       </c>
-      <c r="AR12" s="36">
+      <c r="AR12" s="28">
         <v>8</v>
       </c>
-      <c r="AS12" s="36">
+      <c r="AS12" s="28">
         <v>5.0369999999999999</v>
       </c>
-      <c r="AT12" s="36">
+      <c r="AT12" s="28">
         <v>2.7189999999999999</v>
       </c>
-      <c r="AU12" s="38">
+      <c r="AU12" s="30">
         <v>-46.019456025411955</v>
       </c>
-      <c r="AV12" s="36">
+      <c r="AV12" s="28">
         <v>5.15</v>
       </c>
-      <c r="AW12" s="37">
+      <c r="AW12" s="29">
         <v>2.2433988485209539</v>
       </c>
     </row>
     <row r="13" spans="3:50" x14ac:dyDescent="0.3">
-      <c r="C13" s="36">
+      <c r="C13" s="28">
         <v>5000</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="29">
         <v>4.9960000000000004</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="29">
         <v>0.99502091216889077</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="30">
         <v>4.6100000000000003</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="29">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="29">
         <v>0.91666666666666674</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="30">
         <v>4.8</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="29">
         <v>1</v>
       </c>
-      <c r="AF13" s="48" t="s">
+      <c r="AF13" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AG13" s="32">
+      <c r="AG13" s="24">
         <v>1.2155</v>
       </c>
-      <c r="AR13" s="36">
+      <c r="AR13" s="28">
         <v>9</v>
       </c>
-      <c r="AS13" s="36">
+      <c r="AS13" s="28">
         <v>5.0350000000000001</v>
       </c>
-      <c r="AT13" s="36">
+      <c r="AT13" s="28">
         <v>2.871</v>
       </c>
-      <c r="AU13" s="38">
+      <c r="AU13" s="30">
         <v>-42.979145978152935</v>
       </c>
-      <c r="AV13" s="36">
+      <c r="AV13" s="28">
         <v>5.15</v>
       </c>
-      <c r="AW13" s="37">
+      <c r="AW13" s="29">
         <v>2.2840119165839168</v>
       </c>
     </row>
     <row r="14" spans="3:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="36">
+      <c r="C14" s="28">
         <v>10000</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="29">
         <v>4.976</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="29">
         <v>0.99103764190400323</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="30">
         <v>3.82</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="29">
         <v>0.76400000000000001</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="31">
         <v>4.2</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="29">
         <v>0.87500000000000011</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="30">
         <v>4.8</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="29">
         <v>1</v>
       </c>
-      <c r="AF14" s="49" t="s">
+      <c r="AF14" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="AG14" s="50">
+      <c r="AG14" s="42">
         <v>1.25</v>
       </c>
       <c r="AR14" s="7">
         <v>10</v>
       </c>
-      <c r="AS14" s="36">
+      <c r="AS14" s="28">
         <v>5.0330000000000004</v>
       </c>
-      <c r="AT14" s="36">
+      <c r="AT14" s="28">
         <v>3.0110000000000001</v>
       </c>
-      <c r="AU14" s="38">
+      <c r="AU14" s="30">
         <v>-40.17484601629247</v>
       </c>
-      <c r="AV14" s="36">
+      <c r="AV14" s="28">
         <v>5.14</v>
       </c>
-      <c r="AW14" s="37">
+      <c r="AW14" s="29">
         <v>2.1259686071925157</v>
       </c>
     </row>
     <row r="15" spans="3:50" x14ac:dyDescent="0.3">
-      <c r="C15" s="36">
+      <c r="C15" s="28">
         <v>20000</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="29">
         <v>4.976</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="29">
         <v>0.99103764190400323</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="30">
         <v>2.42</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="29">
         <v>0.48399999999999999</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="31">
         <v>4</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="29">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="30">
         <v>4.8</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="29">
         <v>1</v>
       </c>
-      <c r="AR15" s="36">
+      <c r="AR15" s="28">
         <v>15</v>
       </c>
-      <c r="AS15" s="36">
+      <c r="AS15" s="28">
         <v>5.0279999999999996</v>
       </c>
-      <c r="AT15" s="36">
+      <c r="AT15" s="28">
         <v>3.59</v>
       </c>
-      <c r="AU15" s="38">
+      <c r="AU15" s="30">
         <v>-28.599840891010338</v>
       </c>
-      <c r="AV15" s="36">
+      <c r="AV15" s="28">
         <v>5.13</v>
       </c>
-      <c r="AW15" s="37">
+      <c r="AW15" s="29">
         <v>2.0286396181384312</v>
       </c>
     </row>
     <row r="16" spans="3:50" x14ac:dyDescent="0.3">
-      <c r="C16" s="36">
+      <c r="C16" s="28">
         <v>50000</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="29">
         <v>5.1050000000000004</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="29">
         <v>1.0167297351125275</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="30">
         <v>0.64</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="29">
         <v>0.128</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="31">
         <v>2.4</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="29">
         <v>0.5</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="30">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="29">
         <v>0.95833333333333326</v>
       </c>
-      <c r="AR16" s="36">
+      <c r="AR16" s="28">
         <v>20</v>
       </c>
-      <c r="AS16" s="36">
+      <c r="AS16" s="28">
         <v>5.0229999999999997</v>
       </c>
-      <c r="AT16" s="36">
+      <c r="AT16" s="28">
         <v>4.0250000000000004</v>
       </c>
-      <c r="AU16" s="38">
+      <c r="AU16" s="30">
         <v>-19.868604419669509</v>
       </c>
-      <c r="AV16" s="36">
+      <c r="AV16" s="28">
         <v>5.12</v>
       </c>
-      <c r="AW16" s="37">
+      <c r="AW16" s="29">
         <v>1.9311168624328177</v>
       </c>
     </row>
     <row r="17" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="C17" s="36">
+      <c r="C17" s="28">
         <v>100000</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="29">
         <v>5.6879999999999997</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="29">
         <v>1.1328420633339973</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="30">
         <v>0.14799999999999999</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="29">
         <v>2.9599999999999998E-2</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="31">
         <v>0.6</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="29">
         <v>0.125</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="30">
         <v>4</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="29">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AR17" s="36">
+      <c r="AR17" s="28">
         <v>25</v>
       </c>
-      <c r="AS17" s="36">
+      <c r="AS17" s="28">
         <v>5.0190000000000001</v>
       </c>
-      <c r="AT17" s="36">
+      <c r="AT17" s="28">
         <v>4.359</v>
       </c>
-      <c r="AU17" s="38">
+      <c r="AU17" s="30">
         <v>-13.150029886431563</v>
       </c>
-      <c r="AV17" s="36">
+      <c r="AV17" s="28">
         <v>5.1100000000000003</v>
       </c>
-      <c r="AW17" s="37">
+      <c r="AW17" s="29">
         <v>1.8131101813110218</v>
       </c>
     </row>
     <row r="18" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="AR18" s="36">
+      <c r="AR18" s="28">
         <v>30</v>
       </c>
-      <c r="AS18" s="36">
+      <c r="AS18" s="28">
         <v>5.0149999999999997</v>
       </c>
-      <c r="AT18" s="36">
+      <c r="AT18" s="28">
         <v>4.6139999999999999</v>
       </c>
-      <c r="AU18" s="37">
+      <c r="AU18" s="29">
         <v>-7.996011964107673</v>
       </c>
-      <c r="AV18" s="36">
+      <c r="AV18" s="28">
         <v>5.09</v>
       </c>
-      <c r="AW18" s="37">
+      <c r="AW18" s="29">
         <v>1.4955134596211401</v>
       </c>
     </row>
     <row r="19" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="AR19" s="36">
+      <c r="AR19" s="28">
         <v>35</v>
       </c>
-      <c r="AS19" s="36">
+      <c r="AS19" s="28">
         <v>5.0119999999999996</v>
       </c>
-      <c r="AT19" s="36">
+      <c r="AT19" s="28">
         <v>4.8019999999999996</v>
       </c>
-      <c r="AU19" s="37">
+      <c r="AU19" s="29">
         <v>-4.1899441340782122</v>
       </c>
-      <c r="AV19" s="36">
+      <c r="AV19" s="28">
         <v>5.08</v>
       </c>
-      <c r="AW19" s="37">
+      <c r="AW19" s="29">
         <v>1.3567438148443836</v>
       </c>
     </row>
     <row r="20" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="AR20" s="36">
+      <c r="AR20" s="28">
         <v>40</v>
       </c>
-      <c r="AS20" s="36">
+      <c r="AS20" s="28">
         <v>5.0090000000000003</v>
       </c>
-      <c r="AT20" s="36">
+      <c r="AT20" s="28">
         <v>4.931</v>
       </c>
-      <c r="AU20" s="37">
+      <c r="AU20" s="29">
         <v>-1.5571970453184325</v>
       </c>
-      <c r="AV20" s="36">
+      <c r="AV20" s="28">
         <v>5.07</v>
       </c>
-      <c r="AW20" s="37">
+      <c r="AW20" s="29">
         <v>1.2178079456977429</v>
       </c>
     </row>
     <row r="21" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="AR21" s="36">
+      <c r="AR21" s="28">
         <v>45</v>
       </c>
-      <c r="AS21" s="36">
+      <c r="AS21" s="28">
         <v>5.0049999999999999</v>
       </c>
-      <c r="AT21" s="36">
+      <c r="AT21" s="28">
         <v>5.0060000000000002</v>
       </c>
-      <c r="AU21" s="37">
+      <c r="AU21" s="29">
         <v>1.9980019980026652E-2</v>
       </c>
-      <c r="AV21" s="36">
+      <c r="AV21" s="28">
         <v>5.05</v>
       </c>
-      <c r="AW21" s="37">
+      <c r="AW21" s="29">
         <v>0.89910089910089763</v>
       </c>
     </row>
     <row r="22" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="AR22" s="36">
+      <c r="AR22" s="28">
         <v>50</v>
       </c>
-      <c r="AS22" s="36">
+      <c r="AS22" s="28">
         <v>5.0010000000000003</v>
       </c>
-      <c r="AT22" s="36">
+      <c r="AT22" s="28">
         <v>5.0279999999999996</v>
       </c>
-      <c r="AU22" s="37">
+      <c r="AU22" s="29">
         <v>0.53989202159566574</v>
       </c>
-      <c r="AV22" s="36">
+      <c r="AV22" s="28">
         <v>5.04</v>
       </c>
-      <c r="AW22" s="37">
+      <c r="AW22" s="29">
         <v>0.77984403119375523</v>
       </c>
     </row>
@@ -2955,5 +6436,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>